--- a/NEW HR/VALENCIANO, MARLYN.xlsx
+++ b/NEW HR/VALENCIANO, MARLYN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -267,7 +267,16 @@
     <t>2/27,28/2020</t>
   </si>
   <si>
-    <t>VALENCIANO, MARLYN</t>
+    <t>HALL OF JUSTICE</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>1/23-27/2023</t>
+  </si>
+  <si>
+    <t>VALENCIANO, MARLYN CAVILES</t>
   </si>
 </sst>
 </file>
@@ -646,17 +655,14 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -670,23 +676,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,7 +1386,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1429,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1493,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1553,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1619,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1682,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1780,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1839,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1904,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1947,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2022,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2208,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2274,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2332,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2398,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2454,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2529,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2572,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2638,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2694,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2792,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2855,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,8 +3333,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3347,34 +3356,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="49"/>
+      <c r="B2" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -3386,21 +3395,23 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3426,18 +3437,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5785,17 +5796,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5831,9 +5842,9 @@
   <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A28" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="4050" topLeftCell="A28"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5855,41 +5866,41 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
-        <v>VALENCIANO, MARLYN</v>
-      </c>
-      <c r="C2" s="49"/>
+        <v>VALENCIANO, MARLYN CAVILES</v>
+      </c>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -5901,25 +5912,25 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="50"/>
+        <v>HALL OF JUSTICE</v>
+      </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5945,18 +5956,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6003,7 +6014,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.582999999999998</v>
+        <v>18.582999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6019,7 +6030,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="49" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="20"/>
@@ -6280,7 +6291,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="20"/>
@@ -6311,7 +6322,7 @@
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="62">
+      <c r="K24" s="50">
         <v>43487</v>
       </c>
     </row>
@@ -6397,7 +6408,7 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="62">
+      <c r="K28" s="50">
         <v>43578</v>
       </c>
     </row>
@@ -6417,7 +6428,7 @@
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="62">
+      <c r="K29" s="50">
         <v>43561</v>
       </c>
     </row>
@@ -6441,7 +6452,7 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="62">
+      <c r="K30" s="50">
         <v>43676</v>
       </c>
     </row>
@@ -6489,7 +6500,7 @@
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="62">
+      <c r="K32" s="50">
         <v>43719</v>
       </c>
     </row>
@@ -6553,7 +6564,7 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="62">
+      <c r="K35" s="50">
         <v>43860</v>
       </c>
     </row>
@@ -6650,7 +6661,9 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
@@ -6666,10 +6679,16 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39">
+        <v>5</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13" t="str">
@@ -6679,7 +6698,9 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
@@ -8137,17 +8158,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8226,12 +8247,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/NEW HR/VALENCIANO, MARLYN.xlsx
+++ b/NEW HR/VALENCIANO, MARLYN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>VALENCIANO, MARLYN CAVILES</t>
+  </si>
+  <si>
+    <t>12/19,20,27-29/2022</t>
   </si>
 </sst>
 </file>
@@ -664,6 +667,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -676,20 +688,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,7 +1389,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1432,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1496,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1556,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1622,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1685,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1783,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1842,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1907,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1950,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2025,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2211,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2277,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2335,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2401,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2457,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2532,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2575,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2641,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2697,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2795,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2858,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3337,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,14 +3367,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3382,14 +3385,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3402,16 +3405,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3437,18 +3440,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3495,7 +3498,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3505,7 +3508,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4805,7 +4808,7 @@
         <v>44896</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
@@ -4822,7 +4825,9 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
@@ -4883,15 +4888,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -5796,17 +5805,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5875,14 +5884,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5896,17 +5905,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5920,17 +5929,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>HALL OF JUSTICE</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5956,18 +5965,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/VALENCIANO, MARLYN.xlsx
+++ b/NEW HR/VALENCIANO, MARLYN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>12/19,20,27-29/2022</t>
+  </si>
+  <si>
+    <t>4/18,19/2023</t>
+  </si>
+  <si>
+    <t>4/25,26/2023</t>
   </si>
 </sst>
 </file>
@@ -667,15 +673,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -688,11 +685,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1389,7 +1395,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,7 +1438,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1502,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1562,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1628,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1691,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1789,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1848,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1913,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1956,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2031,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2217,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2277,7 +2283,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2341,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2407,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2463,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2538,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2581,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2647,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2703,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2801,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2864,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3340,7 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
       <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
@@ -3367,14 +3373,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3385,14 +3391,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3405,16 +3411,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3440,18 +3446,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5805,17 +5811,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5850,10 +5856,10 @@
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A28"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,14 +5890,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5905,17 +5911,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5929,17 +5935,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>HALL OF JUSTICE</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5965,18 +5971,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6023,7 +6029,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.582999999999998</v>
+        <v>16.582999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6033,7 +6039,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>73.167000000000002</v>
+        <v>71.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6712,8 +6718,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
@@ -6722,16 +6732,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="39">
+        <v>2</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>2</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13" t="str">
@@ -6741,7 +6759,9 @@
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>

--- a/NEW HR/VALENCIANO, MARLYN.xlsx
+++ b/NEW HR/VALENCIANO, MARLYN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -673,6 +673,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -685,20 +694,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1395,7 +1395,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1438,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1562,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1628,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1691,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1789,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1848,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1913,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1956,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2031,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2217,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2283,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2341,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2407,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2463,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2538,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2581,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2647,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,7 +2703,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2801,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2864,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,10 +3340,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,14 +3373,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3391,14 +3391,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3411,16 +3411,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3446,18 +3446,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3514,7 +3514,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4914,15 +4914,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4930,7 +4934,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -5811,17 +5817,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5856,10 +5862,10 @@
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5890,14 +5896,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5911,17 +5917,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5935,17 +5941,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>HALL OF JUSTICE</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5971,18 +5977,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6029,7 +6035,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.582999999999998</v>
+        <v>15.582999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6764,10 +6770,16 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="39"/>
+      <c r="D44" s="39">
+        <v>1</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="str">
@@ -6777,7 +6789,9 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="50">
+        <v>45057</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>

--- a/NEW HR/VALENCIANO, MARLYN.xlsx
+++ b/NEW HR/VALENCIANO, MARLYN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>4/25,26/2023</t>
+  </si>
+  <si>
+    <t>6/8-9/2023</t>
   </si>
 </sst>
 </file>
@@ -673,15 +676,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -694,11 +688,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1395,7 +1398,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1441,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1505,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1565,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1631,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1694,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1792,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1851,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1916,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1959,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2034,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2220,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2286,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2344,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2410,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2466,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2541,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2584,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2650,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,7 +2706,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2804,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2867,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3344,7 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
       <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
@@ -3373,14 +3376,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3391,14 +3394,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3411,16 +3414,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3446,18 +3449,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5817,17 +5820,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5863,9 +5866,9 @@
   <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A28" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5896,14 +5899,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5917,17 +5920,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5941,17 +5944,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>HALL OF JUSTICE</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5977,18 +5980,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6045,7 +6048,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.167000000000002</v>
+        <v>68.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6794,8 +6797,12 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
@@ -6804,14 +6811,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="39">
+        <v>1</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="50">
+        <v>45090</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
@@ -6820,10 +6833,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H46" s="39"/>
+      <c r="H46" s="39">
+        <v>2</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>

--- a/NEW HR/VALENCIANO, MARLYN.xlsx
+++ b/NEW HR/VALENCIANO, MARLYN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB960A4-9810-40C0-A4CD-258D1AC0CD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -294,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -676,6 +677,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -688,20 +698,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,7 +1399,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1442,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,7 +1506,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1566,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1632,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1695,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1793,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1852,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1917,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1960,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2035,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2221,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2287,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2345,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2411,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2467,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2542,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2585,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2651,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2707,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2805,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2868,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2916,7 +2917,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2933,25 +2934,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2963,25 +2964,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2993,13 +2994,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3008,14 +3009,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3319,7 +3320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3329,7 +3330,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3337,34 +3338,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3376,16 +3377,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3394,16 +3395,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3414,18 +3415,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3433,7 +3434,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3446,24 +3447,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3507,7 +3508,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3517,12 +3518,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3544,7 +3545,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3564,7 +3565,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3584,7 +3585,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3604,7 +3605,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3624,7 +3625,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3644,7 +3645,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3664,7 +3665,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3684,7 +3685,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3704,7 +3705,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3724,7 +3725,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3744,7 +3745,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3764,7 +3765,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3788,7 +3789,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3806,7 +3807,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3826,7 +3827,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3846,7 +3847,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3866,7 +3867,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3886,7 +3887,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3906,7 +3907,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3926,7 +3927,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3946,7 +3947,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3966,7 +3967,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3986,7 +3987,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -4006,7 +4007,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4026,7 +4027,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4050,7 +4051,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4068,7 +4069,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4088,7 +4089,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4108,7 +4109,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4128,7 +4129,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4148,7 +4149,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4168,7 +4169,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4188,7 +4189,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4208,7 +4209,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4228,7 +4229,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4248,7 +4249,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4268,7 +4269,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4288,7 +4289,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4312,7 +4313,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4330,7 +4331,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4350,7 +4351,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4370,7 +4371,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4390,7 +4391,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4410,7 +4411,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4430,7 +4431,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4450,7 +4451,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4470,7 +4471,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4490,7 +4491,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4510,7 +4511,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4530,7 +4531,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4550,7 +4551,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4574,7 +4575,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4592,7 +4593,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4612,7 +4613,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4632,7 +4633,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4652,7 +4653,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4672,7 +4673,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4692,7 +4693,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4712,7 +4713,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4732,7 +4733,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4752,7 +4753,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4772,7 +4773,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4792,7 +4793,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4812,7 +4813,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4856,7 +4857,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4876,7 +4877,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4896,7 +4897,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4916,7 +4917,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4936,25 +4937,27 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4970,7 +4973,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4986,7 +4989,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5002,7 +5005,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5018,7 +5021,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5034,7 +5037,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5050,7 +5053,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5066,7 +5069,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5082,7 +5085,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5098,7 +5101,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5114,7 +5117,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5130,7 +5133,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5146,7 +5149,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5162,7 +5165,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5178,7 +5181,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5194,7 +5197,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5210,7 +5213,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5226,7 +5229,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5242,7 +5245,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5258,7 +5261,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5274,7 +5277,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5290,7 +5293,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5306,7 +5309,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5322,7 +5325,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5338,7 +5341,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5354,7 +5357,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5370,7 +5373,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5386,7 +5389,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5402,7 +5405,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5418,7 +5421,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5434,7 +5437,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5450,7 +5453,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5466,7 +5469,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5482,7 +5485,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5498,7 +5501,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5514,7 +5517,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5530,7 +5533,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5546,7 +5549,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5562,7 +5565,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5578,7 +5581,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5594,7 +5597,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5610,7 +5613,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5626,7 +5629,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5642,7 +5645,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5658,7 +5661,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5674,7 +5677,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5690,7 +5693,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5706,7 +5709,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5722,7 +5725,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5738,7 +5741,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5754,7 +5757,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5770,7 +5773,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5786,7 +5789,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5802,7 +5805,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5820,23 +5823,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5859,34 +5862,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A34" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5899,16 +5902,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5920,19 +5923,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5944,19 +5947,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>HALL OF JUSTICE</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5964,7 +5967,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5977,24 +5980,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6048,12 +6051,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>68.167000000000002</v>
+        <v>67.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>42</v>
       </c>
@@ -6072,7 +6075,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6093,7 +6096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -6114,7 +6117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -6135,7 +6138,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43252</v>
       </c>
@@ -6156,7 +6159,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43313</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43344</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43374</v>
       </c>
@@ -6219,7 +6222,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>52</v>
@@ -6238,7 +6241,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43405</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>50</v>
@@ -6276,7 +6279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>62</v>
@@ -6314,7 +6317,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>43</v>
       </c>
@@ -6329,7 +6332,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -6390,7 +6393,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>52</v>
@@ -6412,7 +6415,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>58</v>
@@ -6456,7 +6459,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -6552,7 +6555,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>44</v>
       </c>
@@ -6570,7 +6573,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43831</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43862</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>52</v>
@@ -6638,7 +6641,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43891</v>
       </c>
@@ -6662,7 +6665,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>64</v>
@@ -6684,7 +6687,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="48" t="s">
         <v>47</v>
       </c>
@@ -6702,7 +6705,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44927</v>
       </c>
@@ -6726,7 +6729,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>45017</v>
       </c>
@@ -6750,7 +6753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>52</v>
@@ -6772,7 +6775,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>45047</v>
       </c>
@@ -6796,7 +6799,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>45078</v>
       </c>
@@ -6820,7 +6823,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>50</v>
@@ -6842,9 +6845,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="20"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="40">
+        <v>45100</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
@@ -6853,12 +6860,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="39"/>
+      <c r="H47" s="39">
+        <v>1</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="50">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6874,7 +6885,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6890,7 +6901,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6906,7 +6917,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6922,7 +6933,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6938,7 +6949,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6954,7 +6965,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6970,7 +6981,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6986,7 +6997,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7002,7 +7013,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7018,7 +7029,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7034,7 +7045,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7050,7 +7061,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7066,7 +7077,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7082,7 +7093,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7098,7 +7109,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7114,7 +7125,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7130,7 +7141,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7146,7 +7157,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7162,7 +7173,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7178,7 +7189,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7194,7 +7205,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7210,7 +7221,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7226,7 +7237,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7242,7 +7253,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7258,7 +7269,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7274,7 +7285,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7290,7 +7301,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7306,7 +7317,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7322,7 +7333,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7338,7 +7349,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7354,7 +7365,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7370,7 +7381,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7386,7 +7397,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7402,7 +7413,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7418,7 +7429,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7434,7 +7445,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7450,7 +7461,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7466,7 +7477,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7482,7 +7493,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7498,7 +7509,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7514,7 +7525,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7530,7 +7541,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7546,7 +7557,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7562,7 +7573,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7578,7 +7589,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7594,7 +7605,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7610,7 +7621,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7626,7 +7637,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7642,7 +7653,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7658,7 +7669,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7674,7 +7685,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7690,7 +7701,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7706,7 +7717,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7722,7 +7733,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7738,7 +7749,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7754,7 +7765,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7770,7 +7781,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7786,7 +7797,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7802,7 +7813,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7818,7 +7829,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7834,7 +7845,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7850,7 +7861,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7866,7 +7877,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7882,7 +7893,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7898,7 +7909,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7914,7 +7925,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7930,7 +7941,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7946,7 +7957,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7962,7 +7973,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7978,7 +7989,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7994,7 +8005,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8010,7 +8021,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8026,7 +8037,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8042,7 +8053,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8058,7 +8069,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8074,7 +8085,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8090,7 +8101,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8106,7 +8117,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8122,7 +8133,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8138,7 +8149,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
       <c r="B128" s="15"/>
       <c r="C128" s="42"/>
@@ -8169,10 +8180,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8195,7 +8206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8203,21 +8214,21 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8230,7 +8241,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8259,7 +8270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>61.582999999999998</v>
       </c>
@@ -8283,17 +8294,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8314,7 +8325,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8341,7 +8352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8367,7 +8378,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8393,7 +8404,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8419,7 +8430,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8445,7 +8456,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8471,7 +8482,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8497,7 +8508,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8523,7 +8534,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8543,7 +8554,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8563,7 +8574,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8583,7 +8594,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8604,7 +8615,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8625,7 +8636,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8646,7 +8657,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8667,7 +8678,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8688,7 +8699,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8709,7 +8720,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8730,7 +8741,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8751,7 +8762,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8772,7 +8783,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8793,7 +8804,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8814,7 +8825,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8835,7 +8846,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8856,7 +8867,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8877,7 +8888,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8898,7 +8909,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8919,7 +8930,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8940,7 +8951,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8961,7 +8972,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8982,7 +8993,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9003,7 +9014,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9012,7 +9023,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9021,7 +9032,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9030,7 +9041,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9039,7 +9050,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9048,7 +9059,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9057,7 +9068,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9066,7 +9077,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9075,7 +9086,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9084,7 +9095,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9093,7 +9104,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9102,7 +9113,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9111,7 +9122,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9120,7 +9131,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9129,7 +9140,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9138,7 +9149,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9147,7 +9158,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9156,7 +9167,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9165,7 +9176,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9174,7 +9185,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9183,7 +9194,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9192,7 +9203,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9201,7 +9212,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9210,7 +9221,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9219,7 +9230,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9228,7 +9239,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9237,7 +9248,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9246,7 +9257,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9255,7 +9266,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9264,7 +9275,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/VALENCIANO, MARLYN.xlsx
+++ b/NEW HR/VALENCIANO, MARLYN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB960A4-9810-40C0-A4CD-258D1AC0CD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DBE4ED-91D4-43F4-A8FB-4CBB76FBD497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>6/8-9/2023</t>
+  </si>
+  <si>
+    <t>7/10-14/2023</t>
   </si>
 </sst>
 </file>
@@ -677,15 +680,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -698,11 +692,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3347,7 +3350,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,14 +3380,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3395,14 +3398,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3415,16 +3418,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3450,18 +3453,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3508,7 +3511,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3518,7 +3521,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4960,13 +4963,15 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -5823,17 +5828,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5871,7 +5876,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4056" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5902,14 +5907,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5923,17 +5928,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5947,17 +5952,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>HALL OF JUSTICE</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5983,18 +5988,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6041,7 +6046,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>15.582999999999998</v>
+        <v>10.582999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6051,7 +6056,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>67.167000000000002</v>
+        <v>66.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6870,8 +6875,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="40">
+        <v>45107</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
@@ -6880,16 +6889,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="39"/>
+      <c r="H48" s="39">
+        <v>1</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="50">
+        <v>45106</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39">
+        <v>5</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
@@ -6899,7 +6916,9 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>

--- a/NEW HR/VALENCIANO, MARLYN.xlsx
+++ b/NEW HR/VALENCIANO, MARLYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DBE4ED-91D4-43F4-A8FB-4CBB76FBD497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -294,11 +293,26 @@
   <si>
     <t>7/10-14/2023</t>
   </si>
+  <si>
+    <t>8/7,8/2023</t>
+  </si>
+  <si>
+    <t>8/14,16/2023</t>
+  </si>
+  <si>
+    <t>9/11,12/2023</t>
+  </si>
+  <si>
+    <t>9/19,21/2023</t>
+  </si>
+  <si>
+    <t>10/3,5,6/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -680,6 +694,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -692,20 +715,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,7 +1416,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1459,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1523,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1583,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1649,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1712,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1810,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1869,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1934,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1977,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2052,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2238,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2304,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2362,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2428,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2484,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2559,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2602,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2668,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2724,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2822,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2885,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +2934,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2937,25 +2951,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2967,25 +2981,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2997,13 +3011,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3012,14 +3026,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3323,7 +3337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3333,7 +3347,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3341,34 +3355,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3380,16 +3394,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3398,16 +3412,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3418,18 +3432,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3437,7 +3451,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3450,24 +3464,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3502,7 +3516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3511,7 +3525,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3521,12 +3535,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3548,7 +3562,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3568,7 +3582,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3588,7 +3602,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3608,7 +3622,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3628,7 +3642,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3648,7 +3662,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3668,7 +3682,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3688,7 +3702,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3708,7 +3722,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3728,7 +3742,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3748,7 +3762,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3768,7 +3782,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3792,7 +3806,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3810,7 +3824,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3830,7 +3844,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3850,7 +3864,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3870,7 +3884,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3890,7 +3904,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3910,7 +3924,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3930,7 +3944,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3950,7 +3964,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3970,7 +3984,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3990,7 +4004,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -4010,7 +4024,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4030,7 +4044,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4054,7 +4068,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4072,7 +4086,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4092,7 +4106,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4112,7 +4126,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4132,7 +4146,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4152,7 +4166,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4172,7 +4186,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4192,7 +4206,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4212,7 +4226,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4232,7 +4246,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4252,7 +4266,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4272,7 +4286,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4292,7 +4306,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4316,7 +4330,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4334,7 +4348,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4354,7 +4368,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4374,7 +4388,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4394,7 +4408,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4414,7 +4428,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4434,7 +4448,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4454,7 +4468,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4474,7 +4488,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4494,7 +4508,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4514,7 +4528,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4534,7 +4548,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4554,7 +4568,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4578,7 +4592,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4596,7 +4610,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4616,7 +4630,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4636,7 +4650,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4656,7 +4670,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4676,7 +4690,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4696,7 +4710,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4716,7 +4730,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4736,7 +4750,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4756,7 +4770,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4776,7 +4790,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4796,7 +4810,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4816,7 +4830,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4842,7 +4856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4860,7 +4874,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4880,7 +4894,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4900,7 +4914,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4920,7 +4934,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4940,7 +4954,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
@@ -4960,8 +4974,10 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -4978,56 +4994,70 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5042,8 +5072,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5058,8 +5090,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5074,7 +5108,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5090,7 +5124,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5106,7 +5140,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5122,7 +5156,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5138,7 +5172,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5154,7 +5188,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5170,7 +5204,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5186,7 +5220,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5202,7 +5236,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5218,7 +5252,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5234,7 +5268,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5250,7 +5284,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5266,7 +5300,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5282,7 +5316,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5298,7 +5332,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5314,7 +5348,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5330,7 +5364,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5346,7 +5380,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5362,7 +5396,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5378,7 +5412,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5394,7 +5428,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5410,7 +5444,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5426,7 +5460,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5442,7 +5476,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5458,7 +5492,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5474,7 +5508,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5490,7 +5524,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5506,7 +5540,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5522,7 +5556,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5538,7 +5572,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5554,7 +5588,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5570,7 +5604,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5586,7 +5620,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5602,7 +5636,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5618,7 +5652,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5634,7 +5668,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5650,7 +5684,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5666,7 +5700,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5682,7 +5716,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5698,7 +5732,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5714,7 +5748,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5730,7 +5764,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5746,7 +5780,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5762,7 +5796,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5778,7 +5812,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5794,7 +5828,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5810,7 +5844,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5828,23 +5862,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5867,34 +5901,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A43" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5907,16 +5941,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5928,19 +5962,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5952,19 +5986,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>HALL OF JUSTICE</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5972,7 +6006,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5985,24 +6019,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6037,7 +6071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6046,7 +6080,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10.582999999999998</v>
+        <v>7.5829999999999984</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6056,12 +6090,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>66.167000000000002</v>
+        <v>58.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>42</v>
       </c>
@@ -6080,7 +6114,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6101,7 +6135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -6122,7 +6156,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -6143,7 +6177,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43252</v>
       </c>
@@ -6164,7 +6198,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43313</v>
       </c>
@@ -6185,7 +6219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43344</v>
       </c>
@@ -6206,7 +6240,7 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43374</v>
       </c>
@@ -6227,7 +6261,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>52</v>
@@ -6246,7 +6280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43405</v>
       </c>
@@ -6265,7 +6299,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>50</v>
@@ -6284,7 +6318,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -6303,7 +6337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>62</v>
@@ -6322,7 +6356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>43</v>
       </c>
@@ -6337,7 +6371,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -6358,7 +6392,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -6379,7 +6413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -6398,7 +6432,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>52</v>
@@ -6420,7 +6454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -6444,7 +6478,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>58</v>
@@ -6464,7 +6498,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -6488,7 +6522,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -6512,7 +6546,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -6536,7 +6570,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -6560,7 +6594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>44</v>
       </c>
@@ -6578,7 +6612,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43831</v>
       </c>
@@ -6600,7 +6634,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43862</v>
       </c>
@@ -6624,7 +6658,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>52</v>
@@ -6646,7 +6680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43891</v>
       </c>
@@ -6670,7 +6704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>64</v>
@@ -6692,7 +6726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>47</v>
       </c>
@@ -6710,7 +6744,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44927</v>
       </c>
@@ -6734,7 +6768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>45017</v>
       </c>
@@ -6758,7 +6792,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>52</v>
@@ -6780,7 +6814,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>45047</v>
       </c>
@@ -6804,7 +6838,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45078</v>
       </c>
@@ -6828,7 +6862,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>50</v>
@@ -6850,7 +6884,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>45100</v>
       </c>
@@ -6874,7 +6908,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45107</v>
       </c>
@@ -6898,7 +6932,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>77</v>
@@ -6920,9 +6954,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="20"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>45148</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
@@ -6931,14 +6969,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="39">
+        <v>2</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
@@ -6947,14 +6991,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H51" s="39"/>
+      <c r="H51" s="39">
+        <v>2</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="20"/>
+      <c r="K51" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
@@ -6963,14 +7015,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H52" s="39"/>
+      <c r="H52" s="39">
+        <v>2</v>
+      </c>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
@@ -6979,16 +7037,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="39">
+        <v>2</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39">
+        <v>3</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
@@ -6998,9 +7066,11 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7016,7 +7086,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7032,7 +7102,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7048,7 +7118,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7064,7 +7134,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7080,7 +7150,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7096,7 +7166,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7112,7 +7182,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7128,7 +7198,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7144,7 +7214,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7160,7 +7230,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7176,7 +7246,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7192,7 +7262,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7208,7 +7278,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7224,7 +7294,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7240,7 +7310,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7256,7 +7326,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7272,7 +7342,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7288,7 +7358,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7304,7 +7374,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7320,7 +7390,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7336,7 +7406,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7352,7 +7422,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7368,7 +7438,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7384,7 +7454,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7400,7 +7470,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7416,7 +7486,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7432,7 +7502,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7448,7 +7518,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7464,7 +7534,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7480,7 +7550,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7496,7 +7566,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7512,7 +7582,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7528,7 +7598,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7544,7 +7614,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7560,7 +7630,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7576,7 +7646,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7592,7 +7662,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7608,7 +7678,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7624,7 +7694,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7640,7 +7710,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7656,7 +7726,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7672,7 +7742,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7688,7 +7758,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7704,7 +7774,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7720,7 +7790,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7736,7 +7806,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7752,7 +7822,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7768,7 +7838,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7784,7 +7854,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7800,7 +7870,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7816,7 +7886,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7832,7 +7902,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7848,7 +7918,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7864,7 +7934,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7880,7 +7950,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7896,7 +7966,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7912,7 +7982,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7928,7 +7998,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7944,7 +8014,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7960,7 +8030,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7976,7 +8046,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7992,7 +8062,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8008,7 +8078,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8024,7 +8094,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8040,7 +8110,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8056,7 +8126,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8072,7 +8142,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8088,7 +8158,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8104,7 +8174,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8120,7 +8190,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8136,7 +8206,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8152,7 +8222,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8168,7 +8238,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41"/>
       <c r="B128" s="15"/>
       <c r="C128" s="42"/>
@@ -8199,10 +8269,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8225,7 +8295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8233,21 +8303,21 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8260,7 +8330,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8289,7 +8359,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>61.582999999999998</v>
       </c>
@@ -8313,17 +8383,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8344,7 +8414,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8371,7 +8441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8397,7 +8467,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8423,7 +8493,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8449,7 +8519,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8475,7 +8545,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8501,7 +8571,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8527,7 +8597,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8553,7 +8623,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8573,7 +8643,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8593,7 +8663,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8613,7 +8683,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8634,7 +8704,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8655,7 +8725,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8676,7 +8746,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8697,7 +8767,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8718,7 +8788,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8739,7 +8809,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8760,7 +8830,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8781,7 +8851,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8802,7 +8872,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8823,7 +8893,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8844,7 +8914,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8865,7 +8935,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8886,7 +8956,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8907,7 +8977,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8928,7 +8998,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8949,7 +9019,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8970,7 +9040,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8991,7 +9061,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9012,7 +9082,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9033,7 +9103,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9042,7 +9112,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9051,7 +9121,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9060,7 +9130,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9069,7 +9139,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9078,7 +9148,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9087,7 +9157,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9096,7 +9166,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9105,7 +9175,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9114,7 +9184,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9123,7 +9193,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9132,7 +9202,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9141,7 +9211,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9150,7 +9220,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9159,7 +9229,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9168,7 +9238,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9177,7 +9247,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9186,7 +9256,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9195,7 +9265,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9204,7 +9274,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9213,7 +9283,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9222,7 +9292,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9231,7 +9301,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9240,7 +9310,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9249,7 +9319,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9258,7 +9328,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9267,7 +9337,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9276,7 +9346,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9285,7 +9355,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9294,7 +9364,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
